--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>L'événement se produit après [offset] la toilette / event occurs [offset] after toilette (self grooming/washing)</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>L'événement se produit avant [offset] la collation / event occurs [offset] before snack</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>L'événement se produit lors de la collation / event occurs during snack</t>
+  </si>
+  <si>
+    <t>PSK</t>
+  </si>
+  <si>
+    <t>L'événement se produit après [offset] la collation / event occurs [offset] after snack</t>
   </si>
   <si>
     <t>AMS</t>
@@ -524,7 +542,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,6 +718,42 @@
       </c>
       <c r="D14" s="2"/>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>13</t>
+    <t>16</t>
   </si>
   <si>
     <t>Level</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/FinalisationMappingPosologie/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
